--- a/Sensors.xlsx
+++ b/Sensors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. University\5th Year\EEE4022S\PAR-Measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D263DFB-335E-49F9-A2D2-7FADEF1DA55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F795A3CF-2EB8-484C-8491-4DD4D28BD0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39D94477-EC29-4245-8439-81DFC98DDDFE}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{39D94477-EC29-4245-8439-81DFC98DDDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>Paper</t>
   </si>
@@ -66,16 +66,271 @@
   </si>
   <si>
     <t>Wavelengths</t>
+  </si>
+  <si>
+    <t>Other notes</t>
+  </si>
+  <si>
+    <t>Photosynthetically Active Radiation (PAR) Sensor Using an Array of Light Sensors with the Integration of Data Logging for Agricultural Application</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8463321</t>
+  </si>
+  <si>
+    <t>AKA</t>
+  </si>
+  <si>
+    <t>PARAgriculture</t>
+  </si>
+  <si>
+    <t>PARduino</t>
+  </si>
+  <si>
+    <t>PARduino: a simple and inexpensive device for logging photosynthetically active radiation</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/treephys/article/34/6/640/2338115</t>
+  </si>
+  <si>
+    <t>The design and evaluation of a measurement system for photosynthetically active quantum scalar irradiance</t>
+  </si>
+  <si>
+    <t>https://aslopubs.onlinelibrary.wiley.com/doi/abs/10.4319/lo.1976.21.2.0326</t>
+  </si>
+  <si>
+    <t>PARQuantumScalar</t>
+  </si>
+  <si>
+    <t>Instruments for the Measurement of Photosynthetically Active Radiation and Red, FarRed and Blue Light</t>
+  </si>
+  <si>
+    <t>PARInstruments</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/2403379</t>
+  </si>
+  <si>
+    <t>PARConstruction</t>
+  </si>
+  <si>
+    <t>Construction and Testing of an Inexpensive PAR Sensor</t>
+  </si>
+  <si>
+    <t>https://citeseerx.ist.psu.edu/document?repid=rep1&amp;type=pdf&amp;doi=26e76e58aa15e683a3ed5cebecb3a2b34e71d998</t>
+  </si>
+  <si>
+    <t>A low cost instrument for measurement of photosynthetically active radiation in field canopies</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/000215717790036X</t>
+  </si>
+  <si>
+    <t>PARFieldCanopies</t>
+  </si>
+  <si>
+    <t>A solarimeter for measuring photosynthetically active radiation</t>
+  </si>
+  <si>
+    <t>PARSolarimeter</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/0002157166900173</t>
+  </si>
+  <si>
+    <t>PAR5Year</t>
+  </si>
+  <si>
+    <t>A 5-Year Study of a New Kind of Photosynthetically Active Radiation Sensor</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1562/0031-8655%282003%290770030AYSOAN2.0.CO2</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9181220</t>
+  </si>
+  <si>
+    <t>PARDevelopment</t>
+  </si>
+  <si>
+    <t>On the Development of a Low-Cost Photosynthetically Active Radiation (PAR) Sensor</t>
+  </si>
+  <si>
+    <t>PARRadiativeTransfer</t>
+  </si>
+  <si>
+    <t>https://tc.copernicus.org/articles/15/183/2021/</t>
+  </si>
+  <si>
+    <t>New insights into radiative transfer within sea ice derived from autonomous optical propagation measurements</t>
+  </si>
+  <si>
+    <t>Measuring Photosynthetically Active Radiation with
+a Multi-Channel Integrated Spectral Sensor</t>
+  </si>
+  <si>
+    <t>PARSpectralSensor</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/9401321</t>
+  </si>
+  <si>
+    <t>400 - 700nm (visible light)</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Agriculture applications</t>
+  </si>
+  <si>
+    <t>Silicon photodiode with bandpass optical filter (infrared filter)</t>
+  </si>
+  <si>
+    <t>Correlation of 0.99 with research grade PAR sensor</t>
+  </si>
+  <si>
+    <t>This system used two microcontrollers. An arduino which acted as a ADC, then an Raspberry Pi which acted as a server/PC</t>
+  </si>
+  <si>
+    <t>Correlation of 0.99 error industry standard datalogger Larger errors at low PAR levels</t>
+  </si>
+  <si>
+    <t>LI-COR Quantum sensor</t>
+  </si>
+  <si>
+    <t>USD 685</t>
+  </si>
+  <si>
+    <t>Theoretical</t>
+  </si>
+  <si>
+    <t>No mention</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>350-700nm</t>
+  </si>
+  <si>
+    <t>Photodiodes in conjunction with teflon spheres used to diffuse light</t>
+  </si>
+  <si>
+    <t>This system was developed in 1976, so might not be the best reference. Good theory here though, might be worth reading again</t>
+  </si>
+  <si>
+    <t>400-800nm</t>
+  </si>
+  <si>
+    <t>Errors at low PAR levels</t>
+  </si>
+  <si>
+    <t>Photoccell + optical filter (appendix) w amplifier</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Signal drift of 3-23% from standard</t>
+  </si>
+  <si>
+    <t>Li-190 Quantum Sensor used as standard (comparison). Also very good sensor specifications in this paper</t>
+  </si>
+  <si>
+    <t>400-700nm</t>
+  </si>
+  <si>
+    <t>Gallium Arsenide Phosphide (GaAsP) photodiode in protective casing (diffuser for shorter wavelengths)</t>
+  </si>
+  <si>
+    <t>Canopy</t>
+  </si>
+  <si>
+    <t>blue and red LED</t>
+  </si>
+  <si>
+    <t>r = 0.97</t>
+  </si>
+  <si>
+    <t>Silicon photodiode with bandpass optical filter and diffuser</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>USD110</t>
+  </si>
+  <si>
+    <t>This paper also describes their experimental setup, which could be useful for later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent on light sensitivity </t>
+  </si>
+  <si>
+    <t>Arctic</t>
+  </si>
+  <si>
+    <t>Multispectral light sensors protectedby heat shrink tubing</t>
+  </si>
+  <si>
+    <t>I2C, using an I2C interface chip</t>
+  </si>
+  <si>
+    <t>Supposed to be for multiple months however -&gt;</t>
+  </si>
+  <si>
+    <t>There was sensor failure after two weeks, then full failure after 4 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slightly overestimates PAR </t>
+  </si>
+  <si>
+    <t>400-650nm</t>
+  </si>
+  <si>
+    <t>Spectral sensor using diffuser</t>
+  </si>
+  <si>
+    <t>Also speaks to experimental setup</t>
+  </si>
+  <si>
+    <t>Need to look at the spectral responses of the LEDs and compare to PAR sensors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,14 +352,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,57 +714,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C98AE-6361-4067-A32B-BD3F24AA80F7}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1976</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1983</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1977</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1966</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2003</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{16CE419F-D2C1-4451-AC08-60ECBAA197C3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3CFE6F03-D85D-4901-87A2-7B2346352EF7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{EC72DC41-DB85-4136-BD8A-2F22E75B1A97}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{9C4CB912-AC0A-4BF2-9D3E-5A2EC6726C0D}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{5334571D-0FE4-4521-9454-646F10981C34}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{B4B83EC4-0AED-474E-A9ED-6DDB7D4D8ADE}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{B2EADE0C-051F-4677-BF5C-B504C38C2BB3}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{76AE2144-CB37-497F-B9EF-126B38721E0A}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{45F17E8B-1454-4C5B-B06E-7165F69797FF}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{A3817BA5-48C4-45E1-B1EE-50423CA0DA80}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{AD336315-F107-4060-9CCB-B573069138FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>